--- a/config/project/Integrate_120KW_huawei_20KW/IntegrateReport.xlsx
+++ b/config/project/Integrate_120KW_huawei_20KW/IntegrateReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_huawei_20KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\mcmc\platDemo\platDemo\config\project\Integrate_120KW_huawei_20KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{050E1887-6530-49F9-AFA3-8E67D9368420}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8BF61B69-4D76-49A9-BC7C-4DC43C8B86ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="534">
   <si>
     <t>检测项目</t>
   </si>
@@ -2390,12 +2390,76 @@
     <t>time214</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>部件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑壳断路器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑壳交流输入线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机信号线束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12V电源模块 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电模块线束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value215</t>
+  </si>
+  <si>
+    <t>value216</t>
+  </si>
+  <si>
+    <t>value217</t>
+  </si>
+  <si>
+    <t>value218</t>
+  </si>
+  <si>
+    <t>time214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time215</t>
+  </si>
+  <si>
+    <t>time216</t>
+  </si>
+  <si>
+    <t>time217</t>
+  </si>
+  <si>
+    <t>time218</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2538,6 +2602,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -2711,7 +2783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2979,6 +3051,246 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3006,15 +3318,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3030,223 +3333,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3715,10 +3820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L129" sqref="L129"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3749,27 +3854,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="131"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="157"/>
+      <c r="F3" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="129" t="s">
+      <c r="G3" s="160"/>
+      <c r="H3" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -3784,50 +3889,50 @@
       <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="131"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="154"/>
       <c r="F5" s="67" t="s">
         <v>135</v>
       </c>
       <c r="G5" s="63"/>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="130"/>
-      <c r="J5" s="132" t="s">
+      <c r="I5" s="155"/>
+      <c r="J5" s="151" t="s">
         <v>432</v>
       </c>
-      <c r="K5" s="132"/>
+      <c r="K5" s="151"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="131"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="130"/>
+      <c r="E6" s="155"/>
       <c r="F6" s="64" t="s">
         <v>136</v>
       </c>
       <c r="G6" s="64"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
@@ -3843,48 +3948,48 @@
       <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="131"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="67"/>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="136"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="129" t="s">
+      <c r="E8" s="158"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="127"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="129" t="s">
+      <c r="E9" s="154"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="129"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="127"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="22"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -3909,19 +4014,19 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="113" t="s">
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
       <c r="J12" s="37" t="s">
         <v>2</v>
       </c>
@@ -3930,137 +4035,137 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="165" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
       <c r="J13" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K13" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L13" s="148"/>
+      <c r="L13" s="145"/>
     </row>
     <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="122"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
       <c r="J14" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K14" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L14" s="148"/>
+      <c r="L14" s="145"/>
     </row>
     <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
-      <c r="B15" s="122"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
       <c r="J15" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K15" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L15" s="148"/>
+      <c r="L15" s="145"/>
     </row>
     <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
       <c r="J16" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K16" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L16" s="148"/>
+      <c r="L16" s="145"/>
     </row>
     <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113"/>
-      <c r="B17" s="122"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="54" t="s">
         <v>95</v>
       </c>
       <c r="K17" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="L17" s="148"/>
+      <c r="L17" s="145"/>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="122" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
       <c r="J18" s="55" t="s">
         <v>342</v>
       </c>
@@ -4069,19 +4174,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="113"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
       <c r="J19" s="55" t="s">
         <v>344</v>
       </c>
@@ -4091,19 +4196,19 @@
       <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="140" t="s">
+      <c r="D20" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
       <c r="J20" s="55" t="s">
         <v>347</v>
       </c>
@@ -4112,21 +4217,21 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="123" t="s">
+      <c r="A21" s="133"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125" t="s">
+      <c r="E21" s="103"/>
+      <c r="F21" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
       <c r="J21" s="55" t="s">
         <v>97</v>
       </c>
@@ -4135,19 +4240,19 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="124"/>
-      <c r="F22" s="125" t="s">
+      <c r="E22" s="103"/>
+      <c r="F22" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
       <c r="J22" s="55" t="s">
         <v>98</v>
       </c>
@@ -4156,19 +4261,19 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124" t="s">
+      <c r="A23" s="133"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="125" t="s">
+      <c r="E23" s="103"/>
+      <c r="F23" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
       <c r="J23" s="55" t="s">
         <v>239</v>
       </c>
@@ -4178,21 +4283,21 @@
       <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="123" t="s">
+      <c r="A24" s="133"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="124"/>
-      <c r="F24" s="125" t="s">
+      <c r="E24" s="103"/>
+      <c r="F24" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
       <c r="J24" s="55" t="s">
         <v>99</v>
       </c>
@@ -4201,19 +4306,19 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124" t="s">
+      <c r="A25" s="133"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="124"/>
-      <c r="F25" s="125" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
       <c r="J25" s="55" t="s">
         <v>100</v>
       </c>
@@ -4223,19 +4328,19 @@
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="124" t="s">
+      <c r="A26" s="133"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="124"/>
-      <c r="F26" s="125" t="s">
+      <c r="E26" s="103"/>
+      <c r="F26" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
       <c r="J26" s="55" t="s">
         <v>239</v>
       </c>
@@ -4244,23 +4349,23 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="113" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125" t="s">
+      <c r="E27" s="103"/>
+      <c r="F27" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
       <c r="J27" s="55" t="s">
         <v>141</v>
       </c>
@@ -4269,19 +4374,19 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124" t="s">
+      <c r="A28" s="133"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125" t="s">
+      <c r="E28" s="103"/>
+      <c r="F28" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
       <c r="J28" s="55" t="s">
         <v>142</v>
       </c>
@@ -4290,19 +4395,19 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124" t="s">
+      <c r="A29" s="133"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="125" t="s">
+      <c r="E29" s="103"/>
+      <c r="F29" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
       <c r="J29" s="55" t="s">
         <v>114</v>
       </c>
@@ -4311,19 +4416,19 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124" t="s">
+      <c r="A30" s="133"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="124"/>
-      <c r="F30" s="125" t="s">
+      <c r="E30" s="103"/>
+      <c r="F30" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
       <c r="J30" s="55" t="s">
         <v>115</v>
       </c>
@@ -4332,19 +4437,19 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124" t="s">
+      <c r="A31" s="133"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="125" t="s">
+      <c r="E31" s="103"/>
+      <c r="F31" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
       <c r="J31" s="55" t="s">
         <v>143</v>
       </c>
@@ -4354,19 +4459,19 @@
       <c r="L31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124" t="s">
+      <c r="A32" s="133"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="124"/>
-      <c r="F32" s="125" t="s">
+      <c r="E32" s="103"/>
+      <c r="F32" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
       <c r="J32" s="55" t="s">
         <v>144</v>
       </c>
@@ -4376,19 +4481,19 @@
       <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124" t="s">
+      <c r="A33" s="133"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="124"/>
-      <c r="F33" s="125" t="s">
+      <c r="E33" s="103"/>
+      <c r="F33" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
       <c r="J33" s="55" t="s">
         <v>145</v>
       </c>
@@ -4397,48 +4502,48 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="123" t="s">
+      <c r="A34" s="133"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="124" t="s">
+      <c r="D34" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="124"/>
-      <c r="F34" s="125" t="s">
+      <c r="E34" s="103"/>
+      <c r="F34" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="165" t="s">
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="K34" s="154" t="s">
+      <c r="K34" s="104" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124" t="s">
+      <c r="A35" s="133"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="125" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="156"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="105"/>
     </row>
     <row r="36" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
-      <c r="B36" s="106" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="166" t="s">
         <v>379</v>
       </c>
       <c r="C36" s="49" t="s">
@@ -4463,8 +4568,8 @@
       <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="106"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="166"/>
       <c r="C37" s="49" t="s">
         <v>153</v>
       </c>
@@ -4495,8 +4600,8 @@
       <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
-      <c r="B38" s="106"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="49" t="s">
         <v>204</v>
       </c>
@@ -4519,8 +4624,8 @@
       <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="107"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="49" t="s">
         <v>153</v>
       </c>
@@ -4551,21 +4656,21 @@
       <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12" s="35" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
-      <c r="B40" s="114" t="s">
+      <c r="A40" s="133"/>
+      <c r="B40" s="127" t="s">
         <v>166</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="149" t="s">
+      <c r="D40" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
       <c r="J40" s="57" t="s">
         <v>243</v>
       </c>
@@ -4575,149 +4680,149 @@
       <c r="L40" s="34"/>
     </row>
     <row r="41" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="124" t="s">
+      <c r="A41" s="133"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="139" t="s">
+      <c r="D41" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="175" t="s">
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="120" t="s">
         <v>341</v>
       </c>
-      <c r="K41" s="135" t="s">
+      <c r="K41" s="121" t="s">
         <v>298</v>
       </c>
       <c r="L41" s="34"/>
     </row>
     <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="116"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="157" t="s">
+      <c r="H42" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="I42" s="158"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="121"/>
       <c r="L42" s="34"/>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="116"/>
-      <c r="B43" s="113" t="s">
+      <c r="A43" s="133"/>
+      <c r="B43" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="124" t="s">
+      <c r="D43" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="124"/>
+      <c r="E43" s="103"/>
       <c r="F43" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="G43" s="124" t="s">
+      <c r="G43" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="124"/>
+      <c r="H43" s="103"/>
       <c r="I43" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="J43" s="165" t="s">
+      <c r="J43" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="K43" s="153" t="s">
+      <c r="K43" s="106" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="116"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="124" t="s">
+      <c r="A44" s="133"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="124"/>
+      <c r="E44" s="103"/>
       <c r="F44" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="G44" s="124" t="s">
+      <c r="G44" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="124"/>
+      <c r="H44" s="103"/>
       <c r="I44" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="J44" s="165"/>
-      <c r="K44" s="153"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="106"/>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="116"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124" t="s">
+      <c r="A45" s="133"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="124"/>
+      <c r="E45" s="103"/>
       <c r="F45" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="124" t="s">
+      <c r="G45" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="124"/>
+      <c r="H45" s="103"/>
       <c r="I45" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="J45" s="165"/>
-      <c r="K45" s="153"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="106"/>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="116"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="124" t="s">
+      <c r="A46" s="133"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="124"/>
+      <c r="E46" s="103"/>
       <c r="F46" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
       <c r="I46" s="57"/>
-      <c r="J46" s="165"/>
-      <c r="K46" s="153"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="106"/>
     </row>
     <row r="47" spans="1:12" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
-      <c r="B47" s="113" t="s">
+      <c r="A47" s="133"/>
+      <c r="B47" s="122" t="s">
         <v>165</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="139" t="s">
+      <c r="D47" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
       <c r="J47" s="57" t="s">
         <v>244</v>
       </c>
@@ -4727,25 +4832,25 @@
       <c r="L47" s="34"/>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
-      <c r="B48" s="113"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="150" t="s">
+      <c r="E48" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="F48" s="151"/>
+      <c r="F48" s="119"/>
       <c r="G48" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="150" t="s">
+      <c r="H48" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="I48" s="151"/>
+      <c r="I48" s="119"/>
       <c r="J48" s="55" t="s">
         <v>118</v>
       </c>
@@ -4754,68 +4859,68 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113" t="s">
+      <c r="A49" s="133"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="124" t="s">
+      <c r="D49" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="124"/>
-      <c r="F49" s="150" t="s">
+      <c r="E49" s="103"/>
+      <c r="F49" s="118" t="s">
         <v>245</v>
       </c>
-      <c r="G49" s="151"/>
+      <c r="G49" s="119"/>
       <c r="H49" s="43" t="s">
         <v>159</v>
       </c>
       <c r="I49" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="J49" s="166" t="s">
+      <c r="J49" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="K49" s="154" t="s">
+      <c r="K49" s="104" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="116"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="124" t="s">
+      <c r="A50" s="133"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="124"/>
-      <c r="F50" s="151" t="s">
+      <c r="E50" s="103"/>
+      <c r="F50" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="G50" s="151"/>
+      <c r="G50" s="119"/>
       <c r="H50" s="43" t="s">
         <v>159</v>
       </c>
       <c r="I50" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="J50" s="167"/>
-      <c r="K50" s="156"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="105"/>
       <c r="L50" s="33"/>
     </row>
     <row r="51" spans="1:12" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
-      <c r="B51" s="113"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="139" t="s">
+      <c r="D51" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
       <c r="J51" s="57" t="s">
         <v>247</v>
       </c>
@@ -4825,24 +4930,24 @@
       <c r="L51" s="34"/>
     </row>
     <row r="52" spans="1:12" s="35" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="116"/>
+      <c r="A52" s="133"/>
       <c r="B52" s="79" t="s">
         <v>435</v>
       </c>
       <c r="C52" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="D52" s="176" t="s">
+      <c r="D52" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="E52" s="177"/>
+      <c r="E52" s="94"/>
       <c r="F52" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="G52" s="176" t="s">
+      <c r="G52" s="93" t="s">
         <v>439</v>
       </c>
-      <c r="H52" s="177"/>
+      <c r="H52" s="94"/>
       <c r="I52" s="70" t="s">
         <v>440</v>
       </c>
@@ -4855,24 +4960,24 @@
       <c r="L52" s="34"/>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="116"/>
-      <c r="B53" s="113" t="s">
+      <c r="A53" s="133"/>
+      <c r="B53" s="122" t="s">
         <v>177</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="152" t="s">
+      <c r="D53" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="152"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="152" t="s">
+      <c r="G53" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="152"/>
+      <c r="H53" s="110"/>
       <c r="I53" s="70" t="s">
         <v>175</v>
       </c>
@@ -4885,22 +4990,22 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
-      <c r="B54" s="113"/>
+      <c r="A54" s="133"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="152" t="s">
+      <c r="D54" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="152"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="G54" s="152" t="s">
+      <c r="G54" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="152"/>
+      <c r="H54" s="110"/>
       <c r="I54" s="70" t="s">
         <v>176</v>
       </c>
@@ -4912,24 +5017,24 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
-      <c r="B55" s="113" t="s">
+      <c r="A55" s="133"/>
+      <c r="B55" s="122" t="s">
         <v>178</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="124" t="s">
+      <c r="D55" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="124"/>
+      <c r="E55" s="103"/>
       <c r="F55" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="G55" s="124" t="s">
+      <c r="G55" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="124"/>
+      <c r="H55" s="103"/>
       <c r="I55" s="58" t="s">
         <v>120</v>
       </c>
@@ -4941,246 +5046,246 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="116"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="123" t="s">
+      <c r="A56" s="133"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="139" t="s">
+      <c r="D56" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="111" t="s">
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="K56" s="153" t="s">
+      <c r="K56" s="106" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="120" t="s">
+      <c r="A57" s="134"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="153"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="106"/>
     </row>
     <row r="58" spans="1:12" s="35" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="168" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="113" t="s">
+      <c r="B58" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="114" t="s">
+      <c r="C58" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="149" t="s">
+      <c r="D58" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="109" t="s">
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="K58" s="173" t="s">
+      <c r="K58" s="116" t="s">
         <v>308</v>
       </c>
       <c r="L58" s="34"/>
     </row>
     <row r="59" spans="1:12" s="35" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="106"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="149" t="s">
+      <c r="A59" s="166"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="174"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="115"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="117"/>
       <c r="L59" s="34"/>
     </row>
     <row r="60" spans="1:12" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="106"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="164" t="s">
+      <c r="A60" s="166"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="149" t="s">
+      <c r="D60" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
-      <c r="G60" s="149"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="170" t="s">
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="112" t="s">
         <v>333</v>
       </c>
-      <c r="K60" s="154" t="s">
+      <c r="K60" s="104" t="s">
         <v>309</v>
       </c>
       <c r="L60" s="34"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="120" t="s">
+      <c r="A61" s="166"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="155"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="141"/>
     </row>
     <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="164"/>
-      <c r="D62" s="124" t="s">
+      <c r="A62" s="166"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="124"/>
+      <c r="E62" s="103"/>
       <c r="F62" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="G62" s="124" t="s">
+      <c r="G62" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="124"/>
+      <c r="H62" s="103"/>
       <c r="I62" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="J62" s="171"/>
-      <c r="K62" s="155"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="141"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="139" t="s">
+      <c r="A63" s="166"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="139"/>
-      <c r="F63" s="139"/>
-      <c r="G63" s="139"/>
-      <c r="H63" s="139"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="171"/>
-      <c r="K63" s="155"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="141"/>
     </row>
     <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="164"/>
-      <c r="D64" s="124" t="s">
+      <c r="A64" s="166"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="124"/>
+      <c r="E64" s="103"/>
       <c r="F64" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="G64" s="124" t="s">
+      <c r="G64" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="124"/>
+      <c r="H64" s="103"/>
       <c r="I64" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="J64" s="171"/>
-      <c r="K64" s="155"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="141"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="139" t="s">
+      <c r="A65" s="166"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="139"/>
-      <c r="F65" s="139"/>
-      <c r="G65" s="139"/>
-      <c r="H65" s="139"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="155"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="141"/>
     </row>
     <row r="66" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="164"/>
-      <c r="D66" s="124" t="s">
+      <c r="A66" s="166"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="124"/>
+      <c r="E66" s="103"/>
       <c r="F66" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="G66" s="124" t="s">
+      <c r="G66" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="124"/>
+      <c r="H66" s="103"/>
       <c r="I66" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="J66" s="171"/>
-      <c r="K66" s="155"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="141"/>
       <c r="L66" s="24"/>
     </row>
     <row r="67" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="164"/>
-      <c r="D67" s="139" t="s">
+      <c r="A67" s="166"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="139"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="139"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="172"/>
-      <c r="K67" s="156"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="105"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
-      <c r="B68" s="113"/>
+      <c r="A68" s="166"/>
+      <c r="B68" s="122"/>
       <c r="C68" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="152" t="s">
+      <c r="D68" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="E68" s="152"/>
-      <c r="F68" s="152"/>
-      <c r="G68" s="124" t="s">
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="124"/>
+      <c r="H68" s="103"/>
       <c r="I68" s="58" t="s">
         <v>258</v>
       </c>
@@ -5193,19 +5298,19 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="113"/>
+      <c r="A69" s="166"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="162" t="s">
+      <c r="D69" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="163"/>
-      <c r="I69" s="163"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="129"/>
+      <c r="I69" s="129"/>
       <c r="J69" s="77" t="s">
         <v>443</v>
       </c>
@@ -5214,19 +5319,19 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="113"/>
+      <c r="A70" s="166"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="159" t="s">
+      <c r="D70" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="161"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="125"/>
       <c r="J70" s="55" t="s">
         <v>137</v>
       </c>
@@ -5236,24 +5341,24 @@
       <c r="L70" s="33"/>
     </row>
     <row r="71" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
-      <c r="B71" s="115" t="s">
+      <c r="A71" s="166"/>
+      <c r="B71" s="132" t="s">
         <v>191</v>
       </c>
       <c r="C71" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="124" t="s">
+      <c r="D71" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E71" s="124"/>
+      <c r="E71" s="103"/>
       <c r="F71" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="G71" s="124" t="s">
+      <c r="G71" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="124"/>
+      <c r="H71" s="103"/>
       <c r="I71" s="58" t="s">
         <v>261</v>
       </c>
@@ -5265,243 +5370,243 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="116"/>
-      <c r="C72" s="123" t="s">
+      <c r="A72" s="166"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="139" t="s">
+      <c r="D72" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="139"/>
-      <c r="F72" s="139"/>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="111" t="s">
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="K72" s="153" t="s">
+      <c r="K72" s="106" t="s">
         <v>313</v>
       </c>
       <c r="L72" s="33"/>
     </row>
     <row r="73" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="120" t="s">
+      <c r="A73" s="166"/>
+      <c r="B73" s="133"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="120"/>
-      <c r="I73" s="120"/>
-      <c r="J73" s="112"/>
-      <c r="K73" s="153"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="106"/>
       <c r="L73" s="33"/>
     </row>
     <row r="74" spans="1:12" s="35" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="114" t="s">
+      <c r="A74" s="166"/>
+      <c r="B74" s="133"/>
+      <c r="C74" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="149" t="s">
+      <c r="D74" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="149"/>
-      <c r="F74" s="149"/>
-      <c r="G74" s="149"/>
-      <c r="H74" s="149"/>
-      <c r="I74" s="149"/>
-      <c r="J74" s="109" t="s">
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="115"/>
+      <c r="I74" s="115"/>
+      <c r="J74" s="163" t="s">
         <v>187</v>
       </c>
-      <c r="K74" s="173" t="s">
+      <c r="K74" s="116" t="s">
         <v>314</v>
       </c>
       <c r="L74" s="34"/>
     </row>
     <row r="75" spans="1:12" s="35" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="149" t="s">
+      <c r="A75" s="166"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="149"/>
-      <c r="F75" s="149"/>
-      <c r="G75" s="149"/>
-      <c r="H75" s="149"/>
-      <c r="I75" s="149"/>
-      <c r="J75" s="110"/>
-      <c r="K75" s="174"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
+      <c r="G75" s="115"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="115"/>
+      <c r="J75" s="164"/>
+      <c r="K75" s="117"/>
       <c r="L75" s="34"/>
     </row>
     <row r="76" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="123" t="s">
+      <c r="A76" s="166"/>
+      <c r="B76" s="133"/>
+      <c r="C76" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="149" t="s">
+      <c r="D76" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="E76" s="149"/>
-      <c r="F76" s="149"/>
-      <c r="G76" s="149"/>
-      <c r="H76" s="149"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="166" t="s">
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="K76" s="154" t="s">
+      <c r="K76" s="104" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="139" t="s">
+      <c r="A77" s="166"/>
+      <c r="B77" s="133"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
-      <c r="G77" s="139"/>
-      <c r="H77" s="139"/>
-      <c r="I77" s="139"/>
-      <c r="J77" s="168"/>
-      <c r="K77" s="155"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="141"/>
     </row>
     <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="106"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="124" t="s">
+      <c r="A78" s="166"/>
+      <c r="B78" s="133"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="124"/>
+      <c r="E78" s="103"/>
       <c r="F78" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G78" s="124" t="s">
+      <c r="G78" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="124"/>
+      <c r="H78" s="103"/>
       <c r="I78" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="J78" s="168"/>
-      <c r="K78" s="155"/>
+      <c r="J78" s="108"/>
+      <c r="K78" s="141"/>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="106"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="139" t="s">
+      <c r="A79" s="166"/>
+      <c r="B79" s="133"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="139"/>
-      <c r="F79" s="139"/>
-      <c r="G79" s="139"/>
-      <c r="H79" s="139"/>
-      <c r="I79" s="139"/>
-      <c r="J79" s="168"/>
-      <c r="K79" s="155"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="107"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="107"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="141"/>
     </row>
     <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="106"/>
-      <c r="B80" s="116"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="124" t="s">
+      <c r="A80" s="166"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="124"/>
+      <c r="E80" s="103"/>
       <c r="F80" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G80" s="124" t="s">
+      <c r="G80" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="124"/>
+      <c r="H80" s="103"/>
       <c r="I80" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="J80" s="168"/>
-      <c r="K80" s="155"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="141"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="106"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="139" t="s">
+      <c r="A81" s="166"/>
+      <c r="B81" s="133"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="139"/>
-      <c r="F81" s="139"/>
-      <c r="G81" s="139"/>
-      <c r="H81" s="139"/>
-      <c r="I81" s="139"/>
-      <c r="J81" s="168"/>
-      <c r="K81" s="155"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="107"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="141"/>
     </row>
     <row r="82" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="124" t="s">
+      <c r="A82" s="166"/>
+      <c r="B82" s="133"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="124"/>
+      <c r="E82" s="103"/>
       <c r="F82" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="G82" s="124" t="s">
+      <c r="G82" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="124"/>
+      <c r="H82" s="103"/>
       <c r="I82" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="J82" s="168"/>
-      <c r="K82" s="155"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="141"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="139" t="s">
+      <c r="A83" s="166"/>
+      <c r="B83" s="133"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="139"/>
-      <c r="F83" s="139"/>
-      <c r="G83" s="139"/>
-      <c r="H83" s="139"/>
-      <c r="I83" s="139"/>
-      <c r="J83" s="169"/>
-      <c r="K83" s="156"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="105"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="106"/>
-      <c r="B84" s="116"/>
+      <c r="A84" s="166"/>
+      <c r="B84" s="133"/>
       <c r="C84" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="152" t="s">
+      <c r="D84" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="E84" s="152"/>
-      <c r="F84" s="152"/>
-      <c r="G84" s="124" t="s">
+      <c r="E84" s="110"/>
+      <c r="F84" s="110"/>
+      <c r="G84" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="124"/>
+      <c r="H84" s="103"/>
       <c r="I84" s="58" t="s">
         <v>265</v>
       </c>
@@ -5514,19 +5619,19 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="106"/>
-      <c r="B85" s="116"/>
+      <c r="A85" s="166"/>
+      <c r="B85" s="133"/>
       <c r="C85" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="142" t="s">
+      <c r="D85" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="E85" s="143"/>
-      <c r="F85" s="143"/>
-      <c r="G85" s="143"/>
-      <c r="H85" s="143"/>
-      <c r="I85" s="143"/>
+      <c r="E85" s="149"/>
+      <c r="F85" s="149"/>
+      <c r="G85" s="149"/>
+      <c r="H85" s="149"/>
+      <c r="I85" s="149"/>
       <c r="J85" s="55" t="s">
         <v>383</v>
       </c>
@@ -5536,19 +5641,19 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="106"/>
-      <c r="B86" s="116"/>
+      <c r="A86" s="166"/>
+      <c r="B86" s="133"/>
       <c r="C86" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="118" t="s">
+      <c r="D86" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="121"/>
-      <c r="F86" s="121"/>
-      <c r="G86" s="121"/>
-      <c r="H86" s="121"/>
-      <c r="I86" s="119"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="139"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="140"/>
       <c r="J86" s="55" t="s">
         <v>127</v>
       </c>
@@ -5558,67 +5663,67 @@
       <c r="L86" s="33"/>
     </row>
     <row r="87" spans="1:12" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
-      <c r="B87" s="116"/>
+      <c r="A87" s="166"/>
+      <c r="B87" s="133"/>
       <c r="C87" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="139" t="s">
+      <c r="D87" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="E87" s="144"/>
-      <c r="F87" s="144"/>
-      <c r="G87" s="144"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="111"/>
+      <c r="G87" s="111"/>
       <c r="H87" s="46" t="s">
         <v>88</v>
       </c>
       <c r="I87" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="J87" s="175" t="s">
+      <c r="J87" s="120" t="s">
         <v>267</v>
       </c>
-      <c r="K87" s="135" t="s">
+      <c r="K87" s="121" t="s">
         <v>318</v>
       </c>
       <c r="L87" s="36"/>
     </row>
     <row r="88" spans="1:12" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="106"/>
-      <c r="B88" s="117"/>
+      <c r="A88" s="166"/>
+      <c r="B88" s="134"/>
       <c r="C88" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="139" t="s">
+      <c r="D88" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="E88" s="144"/>
-      <c r="F88" s="144"/>
-      <c r="G88" s="144"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="111"/>
+      <c r="G88" s="111"/>
       <c r="H88" s="46" t="s">
         <v>159</v>
       </c>
       <c r="I88" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="J88" s="175"/>
-      <c r="K88" s="135"/>
+      <c r="J88" s="120"/>
+      <c r="K88" s="121"/>
       <c r="L88" s="36"/>
     </row>
     <row r="89" spans="1:12" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
-      <c r="B89" s="115" t="s">
+      <c r="A89" s="166"/>
+      <c r="B89" s="132" t="s">
         <v>236</v>
       </c>
       <c r="C89" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="D89" s="157" t="s">
+      <c r="D89" s="95" t="s">
         <v>382</v>
       </c>
-      <c r="E89" s="178"/>
-      <c r="F89" s="178"/>
-      <c r="G89" s="178"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="96"/>
+      <c r="G89" s="96"/>
       <c r="H89" s="74" t="s">
         <v>381</v>
       </c>
@@ -5634,20 +5739,20 @@
       <c r="L89" s="36"/>
     </row>
     <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="116"/>
+      <c r="A90" s="166"/>
+      <c r="B90" s="133"/>
       <c r="C90" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="D90" s="118" t="s">
+      <c r="D90" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="E90" s="121"/>
-      <c r="F90" s="119"/>
-      <c r="G90" s="118" t="s">
+      <c r="E90" s="139"/>
+      <c r="F90" s="140"/>
+      <c r="G90" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="H90" s="119"/>
+      <c r="H90" s="140"/>
       <c r="I90" s="61" t="s">
         <v>355</v>
       </c>
@@ -5660,20 +5765,20 @@
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="116"/>
+      <c r="A91" s="166"/>
+      <c r="B91" s="133"/>
       <c r="C91" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="118" t="s">
+      <c r="D91" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="E91" s="121"/>
-      <c r="F91" s="119"/>
-      <c r="G91" s="118" t="s">
+      <c r="E91" s="139"/>
+      <c r="F91" s="140"/>
+      <c r="G91" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="H91" s="119"/>
+      <c r="H91" s="140"/>
       <c r="I91" s="61" t="s">
         <v>356</v>
       </c>
@@ -5686,20 +5791,20 @@
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="1:12" s="40" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="106"/>
-      <c r="B92" s="116"/>
+      <c r="A92" s="166"/>
+      <c r="B92" s="133"/>
       <c r="C92" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D92" s="118" t="s">
+      <c r="D92" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="E92" s="121"/>
-      <c r="F92" s="119"/>
-      <c r="G92" s="145" t="s">
+      <c r="E92" s="139"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="H92" s="146"/>
+      <c r="H92" s="144"/>
       <c r="I92" s="61" t="s">
         <v>357</v>
       </c>
@@ -5712,20 +5817,20 @@
       <c r="L92" s="39"/>
     </row>
     <row r="93" spans="1:12" s="40" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="106"/>
-      <c r="B93" s="116"/>
+      <c r="A93" s="166"/>
+      <c r="B93" s="133"/>
       <c r="C93" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="D93" s="118" t="s">
+      <c r="D93" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="E93" s="121"/>
-      <c r="F93" s="119"/>
-      <c r="G93" s="145" t="s">
+      <c r="E93" s="139"/>
+      <c r="F93" s="140"/>
+      <c r="G93" s="143" t="s">
         <v>352</v>
       </c>
-      <c r="H93" s="146"/>
+      <c r="H93" s="144"/>
       <c r="I93" s="61" t="s">
         <v>358</v>
       </c>
@@ -5738,20 +5843,20 @@
       <c r="L93" s="39"/>
     </row>
     <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
-      <c r="B94" s="116"/>
+      <c r="A94" s="166"/>
+      <c r="B94" s="133"/>
       <c r="C94" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D94" s="118" t="s">
+      <c r="D94" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E94" s="121"/>
-      <c r="F94" s="119"/>
-      <c r="G94" s="145" t="s">
+      <c r="E94" s="139"/>
+      <c r="F94" s="140"/>
+      <c r="G94" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="H94" s="146"/>
+      <c r="H94" s="144"/>
       <c r="I94" s="61" t="s">
         <v>359</v>
       </c>
@@ -5764,20 +5869,20 @@
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
-      <c r="B95" s="116"/>
+      <c r="A95" s="166"/>
+      <c r="B95" s="133"/>
       <c r="C95" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D95" s="118" t="s">
+      <c r="D95" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E95" s="121"/>
-      <c r="F95" s="119"/>
-      <c r="G95" s="145" t="s">
+      <c r="E95" s="139"/>
+      <c r="F95" s="140"/>
+      <c r="G95" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="H95" s="146"/>
+      <c r="H95" s="144"/>
       <c r="I95" s="61" t="s">
         <v>360</v>
       </c>
@@ -5790,20 +5895,20 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
-      <c r="B96" s="116"/>
+      <c r="A96" s="166"/>
+      <c r="B96" s="133"/>
       <c r="C96" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="D96" s="118" t="s">
+      <c r="D96" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E96" s="121"/>
-      <c r="F96" s="119"/>
-      <c r="G96" s="145" t="s">
+      <c r="E96" s="139"/>
+      <c r="F96" s="140"/>
+      <c r="G96" s="143" t="s">
         <v>353</v>
       </c>
-      <c r="H96" s="146"/>
+      <c r="H96" s="144"/>
       <c r="I96" s="61" t="s">
         <v>361</v>
       </c>
@@ -5816,20 +5921,20 @@
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="106"/>
-      <c r="B97" s="116"/>
+      <c r="A97" s="166"/>
+      <c r="B97" s="133"/>
       <c r="C97" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="D97" s="118" t="s">
+      <c r="D97" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="E97" s="121"/>
-      <c r="F97" s="119"/>
-      <c r="G97" s="145" t="s">
+      <c r="E97" s="139"/>
+      <c r="F97" s="140"/>
+      <c r="G97" s="143" t="s">
         <v>354</v>
       </c>
-      <c r="H97" s="146"/>
+      <c r="H97" s="144"/>
       <c r="I97" s="61" t="s">
         <v>362</v>
       </c>
@@ -5842,22 +5947,22 @@
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
-      <c r="B98" s="116"/>
+      <c r="A98" s="166"/>
+      <c r="B98" s="133"/>
       <c r="C98" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D98" s="118" t="s">
+      <c r="D98" s="138" t="s">
         <v>224</v>
       </c>
-      <c r="E98" s="119"/>
+      <c r="E98" s="140"/>
       <c r="F98" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="G98" s="118" t="s">
+      <c r="G98" s="138" t="s">
         <v>225</v>
       </c>
-      <c r="H98" s="119"/>
+      <c r="H98" s="140"/>
       <c r="I98" s="61" t="s">
         <v>248</v>
       </c>
@@ -5870,22 +5975,22 @@
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
-      <c r="B99" s="116"/>
+      <c r="A99" s="166"/>
+      <c r="B99" s="133"/>
       <c r="C99" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="D99" s="118" t="s">
+      <c r="D99" s="138" t="s">
         <v>226</v>
       </c>
-      <c r="E99" s="119"/>
+      <c r="E99" s="140"/>
       <c r="F99" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="G99" s="118" t="s">
+      <c r="G99" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="H99" s="119"/>
+      <c r="H99" s="140"/>
       <c r="I99" s="61" t="s">
         <v>249</v>
       </c>
@@ -5898,18 +6003,18 @@
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
-      <c r="B100" s="117"/>
+      <c r="A100" s="166"/>
+      <c r="B100" s="134"/>
       <c r="C100" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D100" s="118" t="s">
+      <c r="D100" s="138" t="s">
         <v>228</v>
       </c>
-      <c r="E100" s="121"/>
-      <c r="F100" s="121"/>
-      <c r="G100" s="121"/>
-      <c r="H100" s="119"/>
+      <c r="E100" s="139"/>
+      <c r="F100" s="139"/>
+      <c r="G100" s="139"/>
+      <c r="H100" s="140"/>
       <c r="I100" s="61" t="s">
         <v>251</v>
       </c>
@@ -5922,23 +6027,23 @@
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="106" t="s">
+      <c r="A101" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="B101" s="115" t="s">
+      <c r="B101" s="132" t="s">
         <v>203</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D101" s="140" t="s">
+      <c r="D101" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="E101" s="120"/>
-      <c r="F101" s="120"/>
-      <c r="G101" s="120"/>
-      <c r="H101" s="120"/>
-      <c r="I101" s="120"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="130"/>
+      <c r="G101" s="130"/>
+      <c r="H101" s="130"/>
+      <c r="I101" s="130"/>
       <c r="J101" s="55" t="s">
         <v>334</v>
       </c>
@@ -5948,19 +6053,19 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="106"/>
-      <c r="B102" s="116"/>
+      <c r="A102" s="166"/>
+      <c r="B102" s="133"/>
       <c r="C102" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="140" t="s">
+      <c r="D102" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="141"/>
-      <c r="F102" s="141"/>
-      <c r="G102" s="141"/>
-      <c r="H102" s="141"/>
-      <c r="I102" s="141"/>
+      <c r="E102" s="142"/>
+      <c r="F102" s="142"/>
+      <c r="G102" s="142"/>
+      <c r="H102" s="142"/>
+      <c r="I102" s="142"/>
       <c r="J102" s="55" t="s">
         <v>124</v>
       </c>
@@ -5970,19 +6075,19 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="116"/>
+      <c r="A103" s="166"/>
+      <c r="B103" s="133"/>
       <c r="C103" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D103" s="140" t="s">
+      <c r="D103" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="E103" s="141"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="141"/>
-      <c r="H103" s="141"/>
-      <c r="I103" s="141"/>
+      <c r="E103" s="142"/>
+      <c r="F103" s="142"/>
+      <c r="G103" s="142"/>
+      <c r="H103" s="142"/>
+      <c r="I103" s="142"/>
       <c r="J103" s="55" t="s">
         <v>125</v>
       </c>
@@ -5992,19 +6097,19 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="116"/>
+      <c r="A104" s="166"/>
+      <c r="B104" s="133"/>
       <c r="C104" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="140" t="s">
+      <c r="D104" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="E104" s="141"/>
-      <c r="F104" s="141"/>
-      <c r="G104" s="141"/>
-      <c r="H104" s="141"/>
-      <c r="I104" s="141"/>
+      <c r="E104" s="142"/>
+      <c r="F104" s="142"/>
+      <c r="G104" s="142"/>
+      <c r="H104" s="142"/>
+      <c r="I104" s="142"/>
       <c r="J104" s="55" t="s">
         <v>126</v>
       </c>
@@ -6014,19 +6119,19 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="106"/>
-      <c r="B105" s="117"/>
+      <c r="A105" s="166"/>
+      <c r="B105" s="134"/>
       <c r="C105" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="140" t="s">
+      <c r="D105" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="141"/>
-      <c r="F105" s="141"/>
-      <c r="G105" s="141"/>
-      <c r="H105" s="141"/>
-      <c r="I105" s="141"/>
+      <c r="E105" s="142"/>
+      <c r="F105" s="142"/>
+      <c r="G105" s="142"/>
+      <c r="H105" s="142"/>
+      <c r="I105" s="142"/>
       <c r="J105" s="55" t="s">
         <v>252</v>
       </c>
@@ -6036,21 +6141,21 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="106"/>
-      <c r="B106" s="113" t="s">
+      <c r="A106" s="166"/>
+      <c r="B106" s="122" t="s">
         <v>202</v>
       </c>
       <c r="C106" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="120" t="s">
+      <c r="D106" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="E106" s="120"/>
-      <c r="F106" s="120"/>
-      <c r="G106" s="120"/>
-      <c r="H106" s="120"/>
-      <c r="I106" s="120"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="130"/>
+      <c r="G106" s="130"/>
+      <c r="H106" s="130"/>
+      <c r="I106" s="130"/>
       <c r="J106" s="55" t="s">
         <v>129</v>
       </c>
@@ -6060,23 +6165,23 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="106"/>
-      <c r="B107" s="113"/>
+      <c r="A107" s="166"/>
+      <c r="B107" s="122"/>
       <c r="C107" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D107" s="123" t="s">
+      <c r="D107" s="126" t="s">
         <v>146</v>
       </c>
-      <c r="E107" s="123"/>
-      <c r="F107" s="123"/>
+      <c r="E107" s="126"/>
+      <c r="F107" s="126"/>
       <c r="G107" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="H107" s="147" t="s">
+      <c r="H107" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="I107" s="147"/>
+      <c r="I107" s="150"/>
       <c r="J107" s="55" t="s">
         <v>131</v>
       </c>
@@ -6086,19 +6191,19 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="106"/>
-      <c r="B108" s="113"/>
+      <c r="A108" s="166"/>
+      <c r="B108" s="122"/>
       <c r="C108" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D108" s="120" t="s">
+      <c r="D108" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="120"/>
-      <c r="F108" s="120"/>
-      <c r="G108" s="120"/>
-      <c r="H108" s="120"/>
-      <c r="I108" s="120"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="130"/>
+      <c r="G108" s="130"/>
+      <c r="H108" s="130"/>
+      <c r="I108" s="130"/>
       <c r="J108" s="55" t="s">
         <v>330</v>
       </c>
@@ -6108,19 +6213,19 @@
       <c r="L108" s="53"/>
     </row>
     <row r="109" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="106"/>
-      <c r="B109" s="113"/>
+      <c r="A109" s="166"/>
+      <c r="B109" s="122"/>
       <c r="C109" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D109" s="120" t="s">
+      <c r="D109" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="120"/>
-      <c r="F109" s="120"/>
-      <c r="G109" s="120"/>
-      <c r="H109" s="120"/>
-      <c r="I109" s="120"/>
+      <c r="E109" s="130"/>
+      <c r="F109" s="130"/>
+      <c r="G109" s="130"/>
+      <c r="H109" s="130"/>
+      <c r="I109" s="130"/>
       <c r="J109" s="55" t="s">
         <v>128</v>
       </c>
@@ -6130,19 +6235,19 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="107"/>
-      <c r="B110" s="113"/>
+      <c r="A110" s="167"/>
+      <c r="B110" s="122"/>
       <c r="C110" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="120" t="s">
+      <c r="D110" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="120"/>
-      <c r="F110" s="120"/>
-      <c r="G110" s="120"/>
-      <c r="H110" s="120"/>
-      <c r="I110" s="120"/>
+      <c r="E110" s="130"/>
+      <c r="F110" s="130"/>
+      <c r="G110" s="130"/>
+      <c r="H110" s="130"/>
+      <c r="I110" s="130"/>
       <c r="J110" s="55" t="s">
         <v>130</v>
       </c>
@@ -6152,21 +6257,21 @@
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="89" t="s">
+      <c r="A111" s="169" t="s">
         <v>400</v>
       </c>
       <c r="B111" s="86" t="s">
         <v>512</v>
       </c>
-      <c r="C111" s="92" t="s">
+      <c r="C111" s="172" t="s">
         <v>513</v>
       </c>
-      <c r="D111" s="93"/>
-      <c r="E111" s="93"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="93"/>
-      <c r="H111" s="93"/>
-      <c r="I111" s="94"/>
+      <c r="D111" s="173"/>
+      <c r="E111" s="173"/>
+      <c r="F111" s="173"/>
+      <c r="G111" s="173"/>
+      <c r="H111" s="173"/>
+      <c r="I111" s="174"/>
       <c r="J111" s="88" t="s">
         <v>514</v>
       </c>
@@ -6176,17 +6281,17 @@
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
-      <c r="B112" s="105" t="s">
+      <c r="A112" s="170"/>
+      <c r="B112" s="182" t="s">
         <v>399</v>
       </c>
-      <c r="C112" s="98" t="s">
+      <c r="C112" s="97" t="s">
         <v>385</v>
       </c>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="100"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
+      <c r="G112" s="99"/>
       <c r="H112" s="83" t="s">
         <v>445</v>
       </c>
@@ -6202,15 +6307,15 @@
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A113" s="90"/>
-      <c r="B113" s="105"/>
-      <c r="C113" s="98" t="s">
+      <c r="A113" s="170"/>
+      <c r="B113" s="182"/>
+      <c r="C113" s="97" t="s">
         <v>386</v>
       </c>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="100"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="98"/>
+      <c r="G113" s="99"/>
       <c r="H113" s="83" t="s">
         <v>445</v>
       </c>
@@ -6226,15 +6331,15 @@
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A114" s="90"/>
-      <c r="B114" s="105"/>
-      <c r="C114" s="98" t="s">
+      <c r="A114" s="170"/>
+      <c r="B114" s="182"/>
+      <c r="C114" s="97" t="s">
         <v>387</v>
       </c>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="100"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="99"/>
       <c r="H114" s="83" t="s">
         <v>445</v>
       </c>
@@ -6250,15 +6355,15 @@
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A115" s="90"/>
-      <c r="B115" s="105"/>
-      <c r="C115" s="98" t="s">
+      <c r="A115" s="170"/>
+      <c r="B115" s="182"/>
+      <c r="C115" s="97" t="s">
         <v>388</v>
       </c>
-      <c r="D115" s="99"/>
-      <c r="E115" s="99"/>
-      <c r="F115" s="99"/>
-      <c r="G115" s="100"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="99"/>
       <c r="H115" s="83" t="s">
         <v>445</v>
       </c>
@@ -6274,15 +6379,15 @@
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A116" s="90"/>
-      <c r="B116" s="105"/>
-      <c r="C116" s="98" t="s">
+      <c r="A116" s="170"/>
+      <c r="B116" s="182"/>
+      <c r="C116" s="97" t="s">
         <v>389</v>
       </c>
-      <c r="D116" s="99"/>
-      <c r="E116" s="99"/>
-      <c r="F116" s="99"/>
-      <c r="G116" s="100"/>
+      <c r="D116" s="98"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="99"/>
       <c r="H116" s="83" t="s">
         <v>445</v>
       </c>
@@ -6298,15 +6403,15 @@
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A117" s="90"/>
-      <c r="B117" s="105"/>
-      <c r="C117" s="98" t="s">
+      <c r="A117" s="170"/>
+      <c r="B117" s="182"/>
+      <c r="C117" s="97" t="s">
         <v>390</v>
       </c>
-      <c r="D117" s="99"/>
-      <c r="E117" s="99"/>
-      <c r="F117" s="99"/>
-      <c r="G117" s="100"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="99"/>
       <c r="H117" s="83" t="s">
         <v>445</v>
       </c>
@@ -6322,15 +6427,15 @@
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
-      <c r="B118" s="105"/>
-      <c r="C118" s="98" t="s">
+      <c r="A118" s="170"/>
+      <c r="B118" s="182"/>
+      <c r="C118" s="97" t="s">
         <v>391</v>
       </c>
-      <c r="D118" s="99"/>
-      <c r="E118" s="99"/>
-      <c r="F118" s="99"/>
-      <c r="G118" s="100"/>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="99"/>
       <c r="H118" s="83" t="s">
         <v>445</v>
       </c>
@@ -6346,15 +6451,15 @@
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A119" s="90"/>
-      <c r="B119" s="105"/>
-      <c r="C119" s="98" t="s">
+      <c r="A119" s="170"/>
+      <c r="B119" s="182"/>
+      <c r="C119" s="97" t="s">
         <v>392</v>
       </c>
-      <c r="D119" s="99"/>
-      <c r="E119" s="99"/>
-      <c r="F119" s="99"/>
-      <c r="G119" s="100"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="99"/>
       <c r="H119" s="83" t="s">
         <v>445</v>
       </c>
@@ -6370,15 +6475,15 @@
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A120" s="90"/>
-      <c r="B120" s="105"/>
-      <c r="C120" s="98" t="s">
+      <c r="A120" s="170"/>
+      <c r="B120" s="182"/>
+      <c r="C120" s="97" t="s">
         <v>393</v>
       </c>
-      <c r="D120" s="99"/>
-      <c r="E120" s="99"/>
-      <c r="F120" s="99"/>
-      <c r="G120" s="100"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="99"/>
       <c r="H120" s="83" t="s">
         <v>445</v>
       </c>
@@ -6394,15 +6499,15 @@
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A121" s="90"/>
-      <c r="B121" s="105"/>
-      <c r="C121" s="98" t="s">
+      <c r="A121" s="170"/>
+      <c r="B121" s="182"/>
+      <c r="C121" s="97" t="s">
         <v>394</v>
       </c>
-      <c r="D121" s="99"/>
-      <c r="E121" s="99"/>
-      <c r="F121" s="99"/>
-      <c r="G121" s="100"/>
+      <c r="D121" s="98"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="98"/>
+      <c r="G121" s="99"/>
       <c r="H121" s="83" t="s">
         <v>445</v>
       </c>
@@ -6418,15 +6523,15 @@
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A122" s="90"/>
-      <c r="B122" s="105"/>
-      <c r="C122" s="98" t="s">
+      <c r="A122" s="170"/>
+      <c r="B122" s="182"/>
+      <c r="C122" s="97" t="s">
         <v>395</v>
       </c>
-      <c r="D122" s="99"/>
-      <c r="E122" s="99"/>
-      <c r="F122" s="99"/>
-      <c r="G122" s="100"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="98"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="99"/>
       <c r="H122" s="83" t="s">
         <v>445</v>
       </c>
@@ -6442,15 +6547,15 @@
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A123" s="90"/>
-      <c r="B123" s="105"/>
-      <c r="C123" s="98" t="s">
+      <c r="A123" s="170"/>
+      <c r="B123" s="182"/>
+      <c r="C123" s="97" t="s">
         <v>396</v>
       </c>
-      <c r="D123" s="99"/>
-      <c r="E123" s="99"/>
-      <c r="F123" s="99"/>
-      <c r="G123" s="100"/>
+      <c r="D123" s="98"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="99"/>
       <c r="H123" s="83" t="s">
         <v>445</v>
       </c>
@@ -6466,15 +6571,15 @@
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A124" s="90"/>
-      <c r="B124" s="105"/>
-      <c r="C124" s="98" t="s">
+      <c r="A124" s="170"/>
+      <c r="B124" s="182"/>
+      <c r="C124" s="97" t="s">
         <v>397</v>
       </c>
-      <c r="D124" s="99"/>
-      <c r="E124" s="99"/>
-      <c r="F124" s="99"/>
-      <c r="G124" s="100"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="99"/>
       <c r="H124" s="83" t="s">
         <v>445</v>
       </c>
@@ -6490,15 +6595,15 @@
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A125" s="91"/>
-      <c r="B125" s="105"/>
-      <c r="C125" s="98" t="s">
+      <c r="A125" s="171"/>
+      <c r="B125" s="182"/>
+      <c r="C125" s="97" t="s">
         <v>398</v>
       </c>
-      <c r="D125" s="99"/>
-      <c r="E125" s="99"/>
-      <c r="F125" s="99"/>
-      <c r="G125" s="100"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="99"/>
       <c r="H125" s="83" t="s">
         <v>445</v>
       </c>
@@ -6514,19 +6619,19 @@
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A126" s="95" t="s">
+      <c r="A126" s="175" t="s">
         <v>460</v>
       </c>
-      <c r="B126" s="95" t="s">
+      <c r="B126" s="175" t="s">
         <v>460</v>
       </c>
-      <c r="C126" s="98" t="s">
+      <c r="C126" s="97" t="s">
         <v>461</v>
       </c>
-      <c r="D126" s="99"/>
-      <c r="E126" s="99"/>
-      <c r="F126" s="99"/>
-      <c r="G126" s="100"/>
+      <c r="D126" s="98"/>
+      <c r="E126" s="98"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="99"/>
       <c r="H126" s="83" t="s">
         <v>445</v>
       </c>
@@ -6542,17 +6647,17 @@
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="96"/>
-      <c r="B127" s="96"/>
+      <c r="A127" s="176"/>
+      <c r="B127" s="176"/>
       <c r="C127" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="D127" s="101" t="s">
+      <c r="D127" s="178" t="s">
         <v>382</v>
       </c>
-      <c r="E127" s="102"/>
-      <c r="F127" s="102"/>
-      <c r="G127" s="103"/>
+      <c r="E127" s="179"/>
+      <c r="F127" s="179"/>
+      <c r="G127" s="180"/>
       <c r="H127" s="85" t="s">
         <v>462</v>
       </c>
@@ -6567,15 +6672,15 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A128" s="96"/>
-      <c r="B128" s="96"/>
-      <c r="C128" s="98" t="s">
+      <c r="A128" s="176"/>
+      <c r="B128" s="176"/>
+      <c r="C128" s="97" t="s">
         <v>463</v>
       </c>
-      <c r="D128" s="99"/>
-      <c r="E128" s="99"/>
-      <c r="F128" s="99"/>
-      <c r="G128" s="100"/>
+      <c r="D128" s="98"/>
+      <c r="E128" s="98"/>
+      <c r="F128" s="98"/>
+      <c r="G128" s="99"/>
       <c r="H128" s="83" t="s">
         <v>445</v>
       </c>
@@ -6590,15 +6695,15 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A129" s="96"/>
-      <c r="B129" s="96"/>
-      <c r="C129" s="98" t="s">
+      <c r="A129" s="176"/>
+      <c r="B129" s="176"/>
+      <c r="C129" s="97" t="s">
         <v>464</v>
       </c>
-      <c r="D129" s="99"/>
-      <c r="E129" s="99"/>
-      <c r="F129" s="99"/>
-      <c r="G129" s="100"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="98"/>
+      <c r="G129" s="99"/>
       <c r="H129" s="83" t="s">
         <v>445</v>
       </c>
@@ -6613,15 +6718,15 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A130" s="96"/>
-      <c r="B130" s="96"/>
-      <c r="C130" s="98" t="s">
+      <c r="A130" s="176"/>
+      <c r="B130" s="176"/>
+      <c r="C130" s="97" t="s">
         <v>465</v>
       </c>
-      <c r="D130" s="99"/>
-      <c r="E130" s="99"/>
-      <c r="F130" s="99"/>
-      <c r="G130" s="100"/>
+      <c r="D130" s="98"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="99"/>
       <c r="H130" s="83" t="s">
         <v>445</v>
       </c>
@@ -6636,15 +6741,15 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A131" s="96"/>
-      <c r="B131" s="96"/>
-      <c r="C131" s="98" t="s">
+      <c r="A131" s="176"/>
+      <c r="B131" s="176"/>
+      <c r="C131" s="97" t="s">
         <v>466</v>
       </c>
-      <c r="D131" s="99"/>
-      <c r="E131" s="99"/>
-      <c r="F131" s="99"/>
-      <c r="G131" s="100"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="99"/>
       <c r="H131" s="83" t="s">
         <v>445</v>
       </c>
@@ -6659,15 +6764,15 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A132" s="97"/>
-      <c r="B132" s="97"/>
-      <c r="C132" s="98" t="s">
+      <c r="A132" s="177"/>
+      <c r="B132" s="177"/>
+      <c r="C132" s="97" t="s">
         <v>467</v>
       </c>
-      <c r="D132" s="99"/>
-      <c r="E132" s="99"/>
-      <c r="F132" s="99"/>
-      <c r="G132" s="100"/>
+      <c r="D132" s="98"/>
+      <c r="E132" s="98"/>
+      <c r="F132" s="98"/>
+      <c r="G132" s="99"/>
       <c r="H132" s="83" t="s">
         <v>445</v>
       </c>
@@ -6682,21 +6787,21 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="89" t="s">
+      <c r="A133" s="169" t="s">
         <v>478</v>
       </c>
-      <c r="B133" s="89" t="s">
+      <c r="B133" s="169" t="s">
         <v>487</v>
       </c>
-      <c r="C133" s="104" t="s">
+      <c r="C133" s="181" t="s">
         <v>488</v>
       </c>
-      <c r="D133" s="104"/>
-      <c r="E133" s="104"/>
-      <c r="F133" s="104"/>
-      <c r="G133" s="104"/>
-      <c r="H133" s="104"/>
-      <c r="I133" s="104"/>
+      <c r="D133" s="181"/>
+      <c r="E133" s="181"/>
+      <c r="F133" s="181"/>
+      <c r="G133" s="181"/>
+      <c r="H133" s="181"/>
+      <c r="I133" s="181"/>
       <c r="J133" s="82" t="s">
         <v>479</v>
       </c>
@@ -6706,17 +6811,17 @@
       <c r="L133" s="81"/>
     </row>
     <row r="134" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A134" s="90"/>
-      <c r="B134" s="90"/>
-      <c r="C134" s="104" t="s">
+      <c r="A134" s="170"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="181" t="s">
         <v>489</v>
       </c>
-      <c r="D134" s="104"/>
-      <c r="E134" s="104"/>
-      <c r="F134" s="104"/>
-      <c r="G134" s="104"/>
-      <c r="H134" s="104"/>
-      <c r="I134" s="104"/>
+      <c r="D134" s="181"/>
+      <c r="E134" s="181"/>
+      <c r="F134" s="181"/>
+      <c r="G134" s="181"/>
+      <c r="H134" s="181"/>
+      <c r="I134" s="181"/>
       <c r="J134" s="82" t="s">
         <v>481</v>
       </c>
@@ -6725,17 +6830,17 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A135" s="90"/>
-      <c r="B135" s="90"/>
-      <c r="C135" s="104" t="s">
+      <c r="A135" s="170"/>
+      <c r="B135" s="170"/>
+      <c r="C135" s="181" t="s">
         <v>490</v>
       </c>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
-      <c r="F135" s="104"/>
-      <c r="G135" s="104"/>
-      <c r="H135" s="104"/>
-      <c r="I135" s="104"/>
+      <c r="D135" s="181"/>
+      <c r="E135" s="181"/>
+      <c r="F135" s="181"/>
+      <c r="G135" s="181"/>
+      <c r="H135" s="181"/>
+      <c r="I135" s="181"/>
       <c r="J135" s="82" t="s">
         <v>483</v>
       </c>
@@ -6744,17 +6849,17 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="104" t="s">
+      <c r="A136" s="170"/>
+      <c r="B136" s="170"/>
+      <c r="C136" s="181" t="s">
         <v>491</v>
       </c>
-      <c r="D136" s="104"/>
-      <c r="E136" s="104"/>
-      <c r="F136" s="104"/>
-      <c r="G136" s="104"/>
-      <c r="H136" s="104"/>
-      <c r="I136" s="104"/>
+      <c r="D136" s="181"/>
+      <c r="E136" s="181"/>
+      <c r="F136" s="181"/>
+      <c r="G136" s="181"/>
+      <c r="H136" s="181"/>
+      <c r="I136" s="181"/>
       <c r="J136" s="82" t="s">
         <v>485</v>
       </c>
@@ -6763,17 +6868,17 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="90"/>
-      <c r="B137" s="90"/>
-      <c r="C137" s="104" t="s">
+      <c r="A137" s="170"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="181" t="s">
         <v>492</v>
       </c>
-      <c r="D137" s="104"/>
-      <c r="E137" s="104"/>
-      <c r="F137" s="104"/>
-      <c r="G137" s="104"/>
-      <c r="H137" s="104"/>
-      <c r="I137" s="104"/>
+      <c r="D137" s="181"/>
+      <c r="E137" s="181"/>
+      <c r="F137" s="181"/>
+      <c r="G137" s="181"/>
+      <c r="H137" s="181"/>
+      <c r="I137" s="181"/>
       <c r="J137" s="82" t="s">
         <v>468</v>
       </c>
@@ -6782,63 +6887,429 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A138" s="90"/>
-      <c r="B138" s="90"/>
-      <c r="C138" s="104" t="s">
+      <c r="A138" s="170"/>
+      <c r="B138" s="170"/>
+      <c r="C138" s="186" t="s">
         <v>493</v>
       </c>
-      <c r="D138" s="104"/>
-      <c r="E138" s="104"/>
-      <c r="F138" s="104"/>
-      <c r="G138" s="104"/>
-      <c r="H138" s="104"/>
-      <c r="I138" s="104"/>
-      <c r="J138" s="82" t="s">
+      <c r="D138" s="186"/>
+      <c r="E138" s="186"/>
+      <c r="F138" s="186"/>
+      <c r="G138" s="186"/>
+      <c r="H138" s="186"/>
+      <c r="I138" s="186"/>
+      <c r="J138" s="92" t="s">
         <v>469</v>
       </c>
-      <c r="K138" s="76" t="s">
+      <c r="K138" s="187" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="10" t="s">
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="182" t="s">
+        <v>516</v>
+      </c>
+      <c r="B139" s="182" t="s">
+        <v>516</v>
+      </c>
+      <c r="C139" s="185" t="s">
+        <v>517</v>
+      </c>
+      <c r="D139" s="185"/>
+      <c r="E139" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F139" s="181"/>
+      <c r="G139" s="181"/>
+      <c r="H139" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="I139" s="189" t="s">
+        <v>523</v>
+      </c>
+      <c r="J139" s="189"/>
+      <c r="K139" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="L139" s="91"/>
+    </row>
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="182"/>
+      <c r="B140" s="182"/>
+      <c r="C140" s="185" t="s">
+        <v>518</v>
+      </c>
+      <c r="D140" s="185"/>
+      <c r="E140" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F140" s="181"/>
+      <c r="G140" s="181"/>
+      <c r="H140" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="I140" s="189" t="s">
+        <v>525</v>
+      </c>
+      <c r="J140" s="189"/>
+      <c r="K140" s="76" t="s">
+        <v>530</v>
+      </c>
+      <c r="L140" s="91"/>
+    </row>
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="182"/>
+      <c r="B141" s="182"/>
+      <c r="C141" s="185" t="s">
+        <v>519</v>
+      </c>
+      <c r="D141" s="185"/>
+      <c r="E141" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F141" s="181"/>
+      <c r="G141" s="181"/>
+      <c r="H141" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="I141" s="189" t="s">
+        <v>526</v>
+      </c>
+      <c r="J141" s="189"/>
+      <c r="K141" s="76" t="s">
+        <v>531</v>
+      </c>
+      <c r="L141" s="91"/>
+    </row>
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="182"/>
+      <c r="B142" s="182"/>
+      <c r="C142" s="185" t="s">
+        <v>520</v>
+      </c>
+      <c r="D142" s="185"/>
+      <c r="E142" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F142" s="181"/>
+      <c r="G142" s="181"/>
+      <c r="H142" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="I142" s="189" t="s">
+        <v>527</v>
+      </c>
+      <c r="J142" s="189"/>
+      <c r="K142" s="76" t="s">
+        <v>532</v>
+      </c>
+      <c r="L142" s="91"/>
+    </row>
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="182"/>
+      <c r="B143" s="182"/>
+      <c r="C143" s="185" t="s">
+        <v>521</v>
+      </c>
+      <c r="D143" s="185"/>
+      <c r="E143" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="F143" s="188"/>
+      <c r="G143" s="188"/>
+      <c r="H143" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="I143" s="189" t="s">
+        <v>528</v>
+      </c>
+      <c r="J143" s="189"/>
+      <c r="K143" s="76" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A144" s="90"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="183"/>
+      <c r="I144" s="184"/>
+      <c r="J144" s="184"/>
+      <c r="L144" s="91"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C140" s="80" t="s">
+      <c r="C145" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D145" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E140" s="137" t="s">
+      <c r="E145" s="146" t="s">
         <v>404</v>
       </c>
-      <c r="F140" s="137"/>
-      <c r="G140" s="11" t="s">
+      <c r="F145" s="146"/>
+      <c r="G145" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H140" s="138" t="s">
+      <c r="H145" s="147" t="s">
         <v>403</v>
       </c>
-      <c r="I140" s="138"/>
-      <c r="J140" s="8" t="s">
+      <c r="I145" s="147"/>
+      <c r="J145" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K140" s="32" t="s">
+      <c r="K145" s="32" t="s">
         <v>402</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="255">
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:G117"/>
+  <mergeCells count="272">
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="I143:J143"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B126:B132"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="C133:I133"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="C136:I136"/>
+    <mergeCell ref="C137:I137"/>
+    <mergeCell ref="C138:I138"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A58:A100"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="C111:I111"/>
+    <mergeCell ref="B112:B125"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A18:A57"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="D106:I106"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="K76:K83"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="B58:B70"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="B71:B88"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="D49:E49"/>
@@ -6863,228 +7334,15 @@
     <mergeCell ref="J87:J88"/>
     <mergeCell ref="K87:K88"/>
     <mergeCell ref="K56:K57"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="B58:B70"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="B71:B88"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="K76:K83"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="D106:I106"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A18:A57"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A58:A100"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="A111:A125"/>
-    <mergeCell ref="C111:I111"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="B126:B132"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="C132:G132"/>
-    <mergeCell ref="C133:I133"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="C136:I136"/>
-    <mergeCell ref="C137:I137"/>
-    <mergeCell ref="C138:I138"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="B112:B125"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:G117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J58 J53:J56 J13:J25 J74 J27:J35 J40:J50 J76:J111 J60:J68 J70:J72 I112:J125">
